--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-33/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-33/curvature_data.xlsx
@@ -379,100 +379,100 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>56101.575146</v>
+        <v>56033.843143</v>
       </c>
       <c r="B2">
-        <v>3.1165332217e-05</v>
+        <v>-1.7230057923e-05</v>
       </c>
       <c r="C2">
-        <v>-0.00039737225828</v>
+        <v>-2.1547127705e-05</v>
       </c>
       <c r="D2">
-        <v>-0.00059306827987</v>
+        <v>-3.4328365832e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>56056.843144</v>
+        <v>56044.911143</v>
       </c>
       <c r="B3">
-        <v>4.9660126839e-05</v>
+        <v>3.8375054692e-05</v>
       </c>
       <c r="C3">
-        <v>-0.00012741443808</v>
+        <v>-5.1336102373e-05</v>
       </c>
       <c r="D3">
-        <v>-0.0002362921457</v>
+        <v>-0.00015934771498</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>56079.043145</v>
+        <v>56056.843144</v>
       </c>
       <c r="B4">
-        <v>6.0204170023e-05</v>
+        <v>4.9660126839e-05</v>
       </c>
       <c r="C4">
-        <v>-0.00027595831267</v>
+        <v>-0.00012741443808</v>
       </c>
       <c r="D4">
-        <v>-0.00040263176161</v>
+        <v>-0.0002362921457</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>56194.77515</v>
+        <v>56067.711144</v>
       </c>
       <c r="B5">
-        <v>8.6634832269e-05</v>
+        <v>5.5346596936e-05</v>
       </c>
       <c r="C5">
-        <v>-4.4584217007e-05</v>
+        <v>-0.00020985740722</v>
       </c>
       <c r="D5">
-        <v>-0.00015350248485</v>
+        <v>-0.00031211345179</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>56185.44315</v>
+        <v>56079.043145</v>
       </c>
       <c r="B6">
-        <v>6.3176491363e-05</v>
+        <v>6.0204170023e-05</v>
       </c>
       <c r="C6">
-        <v>-0.0001228659977</v>
+        <v>-0.00027595831267</v>
       </c>
       <c r="D6">
-        <v>-0.00023293847126</v>
+        <v>-0.00040263176161</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>56067.711144</v>
+        <v>56090.775145</v>
       </c>
       <c r="B7">
-        <v>5.5346596936e-05</v>
+        <v>-5.0452796064e-06</v>
       </c>
       <c r="C7">
-        <v>-0.00020985740722</v>
+        <v>-0.0003374473163</v>
       </c>
       <c r="D7">
-        <v>-0.00031211345179</v>
+        <v>-0.00050536242223</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>56044.911143</v>
+        <v>56101.575146</v>
       </c>
       <c r="B8">
-        <v>3.8375054692e-05</v>
+        <v>3.1165332217e-05</v>
       </c>
       <c r="C8">
-        <v>-5.1336102373e-05</v>
+        <v>-0.00039737225828</v>
       </c>
       <c r="D8">
-        <v>-0.00015934771498</v>
+        <v>-0.00059306827987</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -505,114 +505,114 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>56033.843143</v>
+        <v>56136.575148</v>
       </c>
       <c r="B11">
-        <v>-1.7230057923e-05</v>
+        <v>-1.54871339e-05</v>
       </c>
       <c r="C11">
-        <v>-2.1547127705e-05</v>
+        <v>-0.00047124082669</v>
       </c>
       <c r="D11">
-        <v>-3.4328365832e-05</v>
+        <v>-0.00067686607062</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>56157.111149</v>
+        <v>56146.975148</v>
       </c>
       <c r="B12">
-        <v>4.3049568854e-05</v>
+        <v>2.0689164304e-05</v>
       </c>
       <c r="C12">
-        <v>-0.00033853668645</v>
+        <v>-0.00039835869034</v>
       </c>
       <c r="D12">
-        <v>-0.0004940371886199999</v>
+        <v>-0.00059027095754</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>56175.51115</v>
+        <v>56157.111149</v>
       </c>
       <c r="B13">
-        <v>6.336217033800001e-05</v>
+        <v>4.3049568854e-05</v>
       </c>
       <c r="C13">
-        <v>-0.00020157933778</v>
+        <v>-0.00033853668645</v>
       </c>
       <c r="D13">
-        <v>-0.00031635412827</v>
+        <v>-0.0004940371886199999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>56204.307151</v>
+        <v>56166.443149</v>
       </c>
       <c r="B14">
-        <v>-1.925533501e-05</v>
+        <v>4.6905417408e-05</v>
       </c>
       <c r="C14">
-        <v>-2.3150838358e-05</v>
+        <v>-0.00027426384979</v>
       </c>
       <c r="D14">
-        <v>-3.4682020062e-05</v>
+        <v>-0.00040185911057</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>56136.575148</v>
+        <v>56175.51115</v>
       </c>
       <c r="B15">
-        <v>-1.54871339e-05</v>
+        <v>6.336217033800001e-05</v>
       </c>
       <c r="C15">
-        <v>-0.00047124082669</v>
+        <v>-0.00020157933778</v>
       </c>
       <c r="D15">
-        <v>-0.00067686607062</v>
+        <v>-0.00031635412827</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>56166.443149</v>
+        <v>56185.44315</v>
       </c>
       <c r="B16">
-        <v>4.6905417408e-05</v>
+        <v>6.3176491363e-05</v>
       </c>
       <c r="C16">
-        <v>-0.00027426384979</v>
+        <v>-0.0001228659977</v>
       </c>
       <c r="D16">
-        <v>-0.00040185911057</v>
+        <v>-0.00023293847126</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>56146.975148</v>
+        <v>56194.77515</v>
       </c>
       <c r="B17">
-        <v>2.0689164304e-05</v>
+        <v>8.6634832269e-05</v>
       </c>
       <c r="C17">
-        <v>-0.00039835869034</v>
+        <v>-4.4584217007e-05</v>
       </c>
       <c r="D17">
-        <v>-0.00059027095754</v>
+        <v>-0.00015350248485</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>56090.775145</v>
+        <v>56204.307151</v>
       </c>
       <c r="B18">
-        <v>-5.0452796064e-06</v>
+        <v>-1.925533501e-05</v>
       </c>
       <c r="C18">
-        <v>-0.0003374473163</v>
+        <v>-2.3150838358e-05</v>
       </c>
       <c r="D18">
-        <v>-0.00050536242223</v>
+        <v>-3.4682020062e-05</v>
       </c>
     </row>
   </sheetData>
